--- a/Stims/07.20/Materials.xlsx
+++ b/Stims/07.20/Materials.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\Social.Influence_Speech.Perception\SI.SP\Stims\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\Social.Influence_Speech.Perception\SI.SP\Stims\07.20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA659125-2FD7-4B70-B1C9-B8C75615FED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F828B82-3053-455C-883B-2033AF2348B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE94E350-9BA2-40B7-B37A-9E00105A1A32}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BE94E350-9BA2-40B7-B37A-9E00105A1A32}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Material Assignment" sheetId="1" r:id="rId1"/>
+    <sheet name="Word Type" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="104">
   <si>
     <t>Vacation</t>
   </si>
@@ -199,8 +201,74 @@
     <t>Voice 2</t>
   </si>
   <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>Format Shift Ratio</t>
+  </si>
+  <si>
+    <t>New Pitch Median (Hz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pair each S word to one Sh word. The words within each pairing should be as distinct-sounding from their counterpart as possible. </t>
+  </si>
+  <si>
+    <t>S/Sh word pairings are used because earlier research suggests that listeners perceive an individual's production of sounds on the S-Sh continuum as specific to that talker. As a result, listeners have been found to adjust their perception of S-Sh independently across  talkers' speech, meaning it would be possible to simulate 2 distinct talkers with different production boundaries between S and Sh during the same exposure phase. This will thus allow us to simulate two talkers simultaneously and investigate the role of attention on speech perception adapation when a listener is instructed to attend to one of the talkers.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Result: 4 list designs that counterbalance </t>
+      <t xml:space="preserve">Individual recordings of S &amp; Sh words will be transformed to simulate two talkers </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>(see right)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>, and combined to create 20 critical stereo files per list. The stereo files will play one of the words in one ear, and the counterpart in the listener's other ear. This theoretically mimics the listener hearing one talker speaking on their left side, and the other on their right. The purpose of this factor is to aid the listener in distinguish the two simultaneous voices so they can attend to one or the other.</t>
+    </r>
+  </si>
+  <si>
+    <t>Male (M)</t>
+  </si>
+  <si>
+    <t>Female (F)</t>
+  </si>
+  <si>
+    <t>Luthra et al., 2021</t>
+  </si>
+  <si>
+    <t>Talker 1</t>
+  </si>
+  <si>
+    <t>Talker 2</t>
+  </si>
+  <si>
+    <t>Talker to Voice (M, F)</t>
+  </si>
+  <si>
+    <t>Talker to Accent (?s, ?sh)</t>
+  </si>
+  <si>
+    <t>Talker to Ear (L, R)</t>
+  </si>
+  <si>
+    <t>Total # Lists: 8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Divide the S/Sh word pairs in half, assigning every other pairing to one of two groups to create </t>
     </r>
     <r>
       <rPr>
@@ -210,7 +278,7 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t>Voice (M, F)</t>
+      <t>Materials A</t>
     </r>
     <r>
       <rPr>
@@ -229,27 +297,16 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t>Accent (Xs, Xsh)</t>
+      <t>Materials B</t>
     </r>
-  </si>
-  <si>
-    <t>Voice</t>
-  </si>
-  <si>
-    <t>Format Shift Ratio</t>
-  </si>
-  <si>
-    <t>New Pitch Median (Hz)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pair each S word to one Sh word. The words within each pairing should be as distinct-sounding from their counterpart as possible. </t>
-  </si>
-  <si>
-    <t>S/Sh word pairings are used because earlier research suggests that listeners perceive an individual's production of sounds on the S-Sh continuum as specific to that talker. As a result, listeners have been found to adjust their perception of S-Sh independently across  talkers' speech, meaning it would be possible to simulate 2 distinct talkers with different production boundaries between S and Sh during the same exposure phase. This will thus allow us to simulate two talkers simultaneously and investigate the role of attention on speech perception adapation when a listener is instructed to attend to one of the talkers.</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">X's represent the </t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. In each list, half (S or Sh) of </t>
     </r>
     <r>
       <rPr>
@@ -259,7 +316,98 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t>Accent (Xs, Xsh),</t>
+      <t>Materials A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> will be assigned to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Talker 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, and the counterpart will be assigned to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Talker 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. The inverse assignment will be true for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Materials B </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>(See right)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">?'s represent the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Accent (?s, ?sh),</t>
     </r>
     <r>
       <rPr>
@@ -335,7 +483,7 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Xs/Xsh (labeled quadrants) </t>
+      <t xml:space="preserve"> ?s/?sh (labeled quadrants) </t>
     </r>
     <r>
       <rPr>
@@ -348,11 +496,8 @@
     </r>
   </si>
   <si>
-    <t>Note: Simulating Voices</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Divide the S/Sh word pairs in half, assigning every other pairing to one of two groups to create </t>
+      <t xml:space="preserve">Result: 4 list designs that counterbalance </t>
     </r>
     <r>
       <rPr>
@@ -362,7 +507,26 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t>Materials A</t>
+      <t>Voice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>(M, F)</t>
     </r>
     <r>
       <rPr>
@@ -381,16 +545,105 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t>Materials B</t>
+      <t>Accent (?s, ?sh)</t>
     </r>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Critical Trials</t>
+  </si>
+  <si>
+    <t>Ear 1</t>
+  </si>
+  <si>
+    <t>Filler Words</t>
+  </si>
+  <si>
+    <t>Nonwords</t>
+  </si>
+  <si>
+    <t>Ear 2</t>
+  </si>
+  <si>
+    <t>40 Ear 1</t>
+  </si>
+  <si>
+    <t>40 Ear 2</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>40 Nonwords</t>
+  </si>
+  <si>
+    <t>20 Words</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>40 Words</t>
+  </si>
+  <si>
+    <t>20 Nonwords</t>
+  </si>
+  <si>
+    <t>Nonword</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Filler</t>
+  </si>
+  <si>
+    <t>30 Nonword : 30 Word</t>
+  </si>
+  <si>
+    <t>20 Nonword : 30 Word</t>
+  </si>
+  <si>
+    <t>20 Nonwords : 40 Words</t>
+  </si>
+  <si>
+    <t>But then this would mean there would be a Filler Word in Voice 2 for every Nonword in Voice 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonword Pair = </t>
+  </si>
+  <si>
+    <t>Filler Word + Nonword</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>No word pairs with 2 Fillers</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. In each list, half (S or Sh) of </t>
+      <t xml:space="preserve">Fillers and Nonwords </t>
     </r>
     <r>
       <rPr>
@@ -400,7 +653,7 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t>Materials A</t>
+      <t xml:space="preserve">Not </t>
     </r>
     <r>
       <rPr>
@@ -409,194 +662,15 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> will be assigned to </t>
+      <t>balanced</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>Voice 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, and the counterpart will be assigned to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>Voice 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. The inverse assignment will be true for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Materials B </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>(See right)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Individual recordings of S &amp; Sh words will be transformed to simulate two talkers </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>(see right)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>, and combined to create 20 critical stereo files per list. The stereo files will play one of the words in one ear, and the counterpart in the listener's other ear. This theoretically mimics the listener hearing one talker speaking on their left side, and the other on their right. The purpose of this factor is to aid the listener in distinguish the two simultaneous voices so they can attend to one or the other.</t>
-    </r>
-  </si>
-  <si>
-    <t>* Which voice is simulated in which ear will be consistent throughout the listener' exposure. This factor will be counterbalanced in the list design. *</t>
-  </si>
-  <si>
-    <t>Male (M)</t>
-  </si>
-  <si>
-    <t>Female (F)</t>
-  </si>
-  <si>
-    <t>Voice (M, F)</t>
-  </si>
-  <si>
-    <t>Accent (Xs, Xsh)</t>
-  </si>
-  <si>
-    <t>Ear (L, R)</t>
-  </si>
-  <si>
-    <t>Total # Lists: 16</t>
-  </si>
-  <si>
-    <t>* Present the 2 option choices vertically and randomize which talker's word is where? *</t>
-  </si>
-  <si>
-    <t>Test Phase</t>
-  </si>
-  <si>
-    <t>Type 1 Catch Trials</t>
-  </si>
-  <si>
-    <t>Type 2 Catch Trials</t>
-  </si>
-  <si>
-    <t>Participants will hear a word produced by one talker and a nonword produced by the other, and must select if the talker they were instructed to attend to produced a word or a nonword.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* Will also be adding filler words and nonwords as well to create </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>Type 1 &amp; Type 2 Catch Trials</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(see far right) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Luthra et al., 2021</t>
-  </si>
-  <si>
-    <t>At the end of texposure, participants will hear the full asi-ashi continuum produced by both voice. There will be 1 talker per test trial. The trials during this phase will intermix the voices (oppose to blocking by talker) to determine the listener's S-Sh categorization for both talkers.</t>
-  </si>
-  <si>
-    <t>Participants will be instructed at the beginning of the experiment to press the space bar if they hear a beep from either talker during an exposure trial. Beeps will replace a word from either talker to ensure that the participant is properly wearing their headset throughout the experiment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,8 +704,22 @@
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,8 +822,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1260,11 +1384,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1331,21 +1598,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1409,34 +1661,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1534,20 +1759,11 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1559,47 +1775,374 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,16 +2152,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFE5FB"/>
+      <color rgb="FFFFDDFA"/>
+      <color rgb="FFECF1DB"/>
+      <color rgb="FFFFE8C5"/>
       <color rgb="FFE2F3FE"/>
       <color rgb="FFB5E0FD"/>
-      <color rgb="FFFFE5FB"/>
       <color rgb="FFBFE4FD"/>
       <color rgb="FFFFC1F6"/>
-      <color rgb="FFFFDDFA"/>
       <color rgb="FFFFC5F7"/>
       <color rgb="FFEFE5FF"/>
-      <color rgb="FFFFE8C5"/>
-      <color rgb="FFFFD89F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1929,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26893740-08BF-46AB-82EB-D9B605E89688}">
-  <dimension ref="B2:AK28"/>
+  <dimension ref="B2:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AM27" sqref="AM27"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1948,1398 +2491,2314 @@
     <col min="31" max="16384" width="10.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="U2" s="53" t="s">
+    <row r="2" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U2" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="Z2" s="53" t="s">
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="Z2" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AI2" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-    </row>
-    <row r="3" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="41" t="s">
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+    </row>
+    <row r="3" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="112"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="J3" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="Q3" s="58" t="s">
+      <c r="O3" s="103"/>
+      <c r="Q3" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="58"/>
-      <c r="S3" s="108" t="s">
+      <c r="R3" s="121"/>
+      <c r="S3" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="62"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="109" t="s">
+      <c r="T3" s="48"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AI3" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-    </row>
-    <row r="4" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="43" t="s">
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+    </row>
+    <row r="4" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="112"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="51"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="30" t="s">
+      <c r="S4" s="116"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="60"/>
+      <c r="V4" s="46"/>
       <c r="W4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="83" t="s">
+      <c r="X4" s="60"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="84" t="s">
+      <c r="AA4" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="86"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-    </row>
-    <row r="5" spans="2:37" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="38" t="s">
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="72"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100"/>
+    </row>
+    <row r="5" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="112"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="51"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="35" t="s">
+      <c r="N5" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="124" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="129" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="116"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="60"/>
+      <c r="V5" s="131" t="s">
+        <v>73</v>
+      </c>
       <c r="W5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="90"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-    </row>
-    <row r="6" spans="2:37" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="44" t="s">
+      <c r="X5" s="61"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="76"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="100"/>
+      <c r="AG5" s="100"/>
+    </row>
+    <row r="6" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="111"/>
+      <c r="D6" s="94"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="112"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="51"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="31" t="s">
+      <c r="N6" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="116"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="60"/>
+      <c r="V6" s="131" t="s">
+        <v>74</v>
+      </c>
       <c r="W6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC6" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-    </row>
-    <row r="7" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="38" t="s">
+      <c r="X6" s="61"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE6" s="100"/>
+      <c r="AF6" s="100"/>
+      <c r="AG6" s="100"/>
+    </row>
+    <row r="7" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="112"/>
+      <c r="D7" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="51"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="35" t="s">
+      <c r="N7" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="116"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="V7" s="60"/>
+      <c r="V7" s="131" t="s">
+        <v>77</v>
+      </c>
       <c r="W7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="97" t="s">
+      <c r="X7" s="61"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="AC7" s="98" t="s">
+      <c r="AC7" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-    </row>
-    <row r="8" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="44" t="s">
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="100"/>
+    </row>
+    <row r="8" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="82"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="51"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="31" t="s">
+      <c r="N8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="116"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="60"/>
+      <c r="V8" s="131" t="s">
+        <v>78</v>
+      </c>
       <c r="W8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="52"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="117"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="59"/>
-    </row>
-    <row r="9" spans="2:37" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="38" t="s">
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="100"/>
+    </row>
+    <row r="9" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="112"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="95"/>
       <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="51"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="35" t="s">
+      <c r="N9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="116"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="60"/>
+      <c r="V9" s="131" t="s">
+        <v>76</v>
+      </c>
       <c r="W9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="85" t="s">
+      <c r="X9" s="61"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="AC9" s="86" t="s">
+      <c r="AC9" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="59"/>
-    </row>
-    <row r="10" spans="2:37" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="44" t="s">
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="100"/>
+    </row>
+    <row r="10" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="112"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="95"/>
       <c r="H10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="N10" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="51"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="31" t="s">
+      <c r="J10" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="N10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="116"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="60"/>
+      <c r="V10" s="131" t="s">
+        <v>75</v>
+      </c>
       <c r="W10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC10" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="59"/>
-    </row>
-    <row r="11" spans="2:37" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="38" t="s">
+      <c r="X10" s="61"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC10" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="100"/>
+    </row>
+    <row r="11" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="112"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="95"/>
       <c r="H11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="N11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" s="51"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="105"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="N11" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="116"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="V11" s="60"/>
+      <c r="V11" s="131"/>
       <c r="W11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA11" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="94"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-    </row>
-    <row r="12" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="80"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="100"/>
+    </row>
+    <row r="12" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="112"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="N12" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="51"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="31" t="s">
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="N12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="116"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="60"/>
+      <c r="V12" s="131">
+        <v>1</v>
+      </c>
       <c r="W12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="95" t="s">
+      <c r="X12" s="61"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AA12" s="96" t="s">
+      <c r="AA12" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="98"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="107"/>
-      <c r="AI12" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ12" s="113"/>
-      <c r="AK12" s="113"/>
-    </row>
-    <row r="13" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="38" t="s">
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="84"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="92"/>
+    </row>
+    <row r="13" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="112"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="N13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="S13" s="51"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="48" t="s">
+      <c r="J13" s="105"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="N13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="116"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="V13" s="60"/>
+      <c r="V13" s="46"/>
       <c r="W13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="52"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="117"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AI13" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-    </row>
-    <row r="14" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="44" t="s">
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+    </row>
+    <row r="14" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="112"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="N14" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="S14" s="51"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="83" t="s">
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="N14" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="116"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="99" t="s">
+      <c r="AA14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="86"/>
-      <c r="AE14" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="59"/>
-    </row>
-    <row r="15" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="38" t="s">
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="72"/>
+      <c r="AE14" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="100"/>
+    </row>
+    <row r="15" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="112"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA15" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="90"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="59"/>
-    </row>
-    <row r="16" spans="2:37" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="44" t="s">
+      <c r="J15" s="105"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="N15" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="116"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA15" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB15" s="78"/>
+      <c r="AC15" s="76"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="100"/>
+    </row>
+    <row r="16" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="112"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="N16" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="49" t="s">
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="V16" s="68"/>
-      <c r="W16" s="36" t="s">
+      <c r="V16" s="54"/>
+      <c r="W16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC16" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="59"/>
-      <c r="AI16" s="59"/>
-      <c r="AJ16" s="59"/>
-      <c r="AK16" s="59"/>
-    </row>
-    <row r="17" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="38" t="s">
+      <c r="X16" s="61"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC16" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="100"/>
+    </row>
+    <row r="17" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="112"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="95"/>
       <c r="H17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="79"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="N17" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="65"/>
       <c r="U17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="V17" s="68"/>
-      <c r="W17" s="31" t="s">
+      <c r="V17" s="132" t="s">
+        <v>73</v>
+      </c>
+      <c r="W17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="104" t="s">
+      <c r="X17" s="61"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="AC17" s="98" t="s">
+      <c r="AC17" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="59"/>
-    </row>
-    <row r="18" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="44" t="s">
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="100"/>
+    </row>
+    <row r="18" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="112"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="95"/>
       <c r="H18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="79"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="65"/>
       <c r="U18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="V18" s="68"/>
-      <c r="W18" s="35" t="s">
+      <c r="V18" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="W18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="X18" s="75"/>
-      <c r="Y18" s="52"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="117"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-    </row>
-    <row r="19" spans="2:37" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="38" t="s">
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100"/>
+    </row>
+    <row r="19" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="112"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="79"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="65"/>
       <c r="U19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="V19" s="68"/>
-      <c r="W19" s="31" t="s">
+      <c r="V19" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="W19" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="X19" s="75"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="100" t="s">
+      <c r="X19" s="61"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="AC19" s="86" t="s">
+      <c r="AC19" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-    </row>
-    <row r="20" spans="2:37" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="44" t="s">
+    </row>
+    <row r="20" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="112"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="79"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="65"/>
       <c r="U20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="V20" s="68"/>
-      <c r="W20" s="35" t="s">
+      <c r="V20" s="132" t="s">
+        <v>78</v>
+      </c>
+      <c r="W20" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC20" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE20" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-    </row>
-    <row r="21" spans="2:37" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="38" t="s">
+      <c r="X20" s="61"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC20" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE20" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="100"/>
+    </row>
+    <row r="21" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="112"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="N21" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="79"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="65"/>
       <c r="U21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V21" s="68"/>
-      <c r="W21" s="31" t="s">
+      <c r="V21" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="W21" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA21" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB21" s="102"/>
-      <c r="AC21" s="94"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="107"/>
-    </row>
-    <row r="22" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="44" t="s">
+      <c r="X21" s="61"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA21" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="80"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="92"/>
+    </row>
+    <row r="22" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="112"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="95"/>
       <c r="H22" s="11" t="s">
         <v>1</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="79"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="N22" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="65"/>
       <c r="U22" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="68"/>
-      <c r="W22" s="35" t="s">
+      <c r="V22" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="W22" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="95" t="s">
+      <c r="X22" s="61"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AA22" s="103" t="s">
+      <c r="AA22" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="98"/>
-      <c r="AE22" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="47" t="s">
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="84"/>
+      <c r="AE22" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AI22" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-    </row>
-    <row r="23" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="40" t="s">
+    </row>
+    <row r="23" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="112"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="N23" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="114"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="79"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="65"/>
       <c r="U23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="V23" s="68"/>
-      <c r="W23" s="31" t="s">
+      <c r="V23" s="132"/>
+      <c r="W23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="X23" s="75"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="47" t="s">
+      <c r="X23" s="61"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="91"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="91"/>
+      <c r="AC23" s="91"/>
+      <c r="AD23" s="91"/>
+      <c r="AE23" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AI23" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="59"/>
-    </row>
-    <row r="24" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
-      <c r="N24" s="123" t="s">
+      <c r="N24" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="124" t="s">
+      <c r="P24" s="109"/>
+      <c r="Q24" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="124" t="s">
-        <v>57</v>
-      </c>
-      <c r="R24" s="126"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="79"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="65"/>
       <c r="U24" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="V24" s="68"/>
-      <c r="W24" s="35" t="s">
+      <c r="V24" s="132">
+        <v>2</v>
+      </c>
+      <c r="W24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="X24" s="75"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="47" t="s">
+      <c r="X24" s="61"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="91"/>
+      <c r="AE24" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-    </row>
-    <row r="25" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="H25" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="N25" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" s="116">
+    </row>
+    <row r="25" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="N25" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="110">
         <v>0.8</v>
       </c>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="116">
+      <c r="P25" s="111"/>
+      <c r="Q25" s="110">
         <v>100</v>
       </c>
-      <c r="R25" s="118"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="81"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="67"/>
       <c r="U25" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="V25" s="68"/>
-      <c r="W25" s="32" t="s">
+      <c r="V25" s="54"/>
+      <c r="W25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="107"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="59"/>
-    </row>
-    <row r="26" spans="2:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="N26" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="120">
+      <c r="X25" s="63"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="91"/>
+      <c r="AB25" s="91"/>
+      <c r="AC25" s="91"/>
+      <c r="AD25" s="91"/>
+      <c r="AE25" s="92"/>
+      <c r="AF25" s="92"/>
+      <c r="AG25" s="92"/>
+    </row>
+    <row r="26" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="N26" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="113">
         <v>1</v>
       </c>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="120">
+      <c r="P26" s="114"/>
+      <c r="Q26" s="113">
         <v>180</v>
       </c>
-      <c r="R26" s="122"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-    </row>
-    <row r="27" spans="2:37" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="N27" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="U27" s="53" t="s">
+      <c r="R26" s="115"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="92"/>
+      <c r="AC26" s="92"/>
+      <c r="AD26" s="92"/>
+      <c r="AE26" s="92"/>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="92"/>
+    </row>
+    <row r="27" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="N27" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
+      <c r="U27" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-    </row>
-    <row r="28" spans="2:37" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AE28" s="107"/>
-      <c r="AF28" s="107"/>
-      <c r="AG28" s="107"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="92"/>
+    </row>
+    <row r="28" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="92"/>
+    </row>
+    <row r="29" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N29" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="103"/>
+      <c r="Q29" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="R29" s="121"/>
+    </row>
+    <row r="30" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N30" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="139" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" s="140" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30" s="141" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N31" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="136" t="s">
+        <v>46</v>
+      </c>
+      <c r="R31" s="137" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q32" s="142" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q33" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="R34" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="R36" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R39" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="14:18" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="R41" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:C23">
-    <sortCondition ref="C4:C23"/>
-  </sortState>
-  <mergeCells count="38">
-    <mergeCell ref="B25:F27"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="AI13:AK20"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK27"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AI3:AK10"/>
+  <mergeCells count="30">
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S3:S26"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AE3:AG11"/>
+    <mergeCell ref="AE14:AG18"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="Y3:Y26"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D7:F23"/>
+    <mergeCell ref="J3:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N17:R21"/>
     <mergeCell ref="J10:L23"/>
-    <mergeCell ref="H25:L27"/>
     <mergeCell ref="AE20:AG20"/>
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="AE22:AF22"/>
     <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="Z26:AG27"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="O24:P24"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D7:F23"/>
-    <mergeCell ref="N16:R20"/>
-    <mergeCell ref="N21:R21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="O26:P26"/>
+    <mergeCell ref="N27:R27"/>
     <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AE3:AG11"/>
-    <mergeCell ref="AE14:AG18"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="S3:S26"/>
-    <mergeCell ref="Y3:Y26"/>
-    <mergeCell ref="J3:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3971C9DD-7252-461F-ADC3-C6DA0C070B05}">
+  <dimension ref="B2:P31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="11.6328125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="156" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="H2" s="160" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="L2" s="156" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+    </row>
+    <row r="3" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="217">
+        <v>20</v>
+      </c>
+      <c r="D3" s="218" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="160"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="L3" s="210" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="211">
+        <v>20</v>
+      </c>
+      <c r="N3" s="212" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="106"/>
+    </row>
+    <row r="4" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="154" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="144">
+        <v>20</v>
+      </c>
+      <c r="D4" s="145" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="104"/>
+      <c r="F4" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="160"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="L4" s="161" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="162">
+        <v>20</v>
+      </c>
+      <c r="N4" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="213" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="219">
+        <v>20</v>
+      </c>
+      <c r="D5" s="215" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="149"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="L5" s="213" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="214">
+        <v>20</v>
+      </c>
+      <c r="N5" s="215" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="105"/>
+      <c r="P5" s="106"/>
+    </row>
+    <row r="6" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="183" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="193">
+        <v>20</v>
+      </c>
+      <c r="D6" s="185" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="104"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="168"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="L6" s="155" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="152">
+        <v>20</v>
+      </c>
+      <c r="N6" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="105"/>
+      <c r="P6" s="106"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="H7" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C8" s="147">
+        <v>80</v>
+      </c>
+      <c r="D8" s="147" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="191" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="192"/>
+      <c r="J8" s="192"/>
+      <c r="L8" s="216" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="208"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="208"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="209"/>
+      <c r="K10" s="208"/>
+      <c r="L10" s="208"/>
+      <c r="M10" s="208"/>
+      <c r="N10" s="208"/>
+      <c r="O10" s="208"/>
+      <c r="P10" s="208"/>
+    </row>
+    <row r="12" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="164" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="F12" s="164" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="J12" s="164" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="N12" s="164" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+    </row>
+    <row r="13" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="153" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="151">
+        <v>20</v>
+      </c>
+      <c r="D13" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="198" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="199">
+        <v>20</v>
+      </c>
+      <c r="H13" s="195" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="153" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="151">
+        <v>20</v>
+      </c>
+      <c r="L13" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="199">
+        <v>20</v>
+      </c>
+      <c r="P13" s="195" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="200" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="201">
+        <v>20</v>
+      </c>
+      <c r="D14" s="197" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="152">
+        <v>20</v>
+      </c>
+      <c r="H14" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="202" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="203">
+        <v>20</v>
+      </c>
+      <c r="L14" s="204" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="166">
+        <v>20</v>
+      </c>
+      <c r="P14" s="165" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="161" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="162">
+        <v>20</v>
+      </c>
+      <c r="D15" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="205" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="206">
+        <v>20</v>
+      </c>
+      <c r="H15" s="207" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="198" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="199">
+        <v>20</v>
+      </c>
+      <c r="L15" s="195" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="186" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" s="187">
+        <v>20</v>
+      </c>
+      <c r="P15" s="188" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="202" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="203">
+        <v>20</v>
+      </c>
+      <c r="D16" s="204" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="166">
+        <v>20</v>
+      </c>
+      <c r="H16" s="165" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="183" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="184">
+        <v>20</v>
+      </c>
+      <c r="L16" s="185" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="201">
+        <v>20</v>
+      </c>
+      <c r="P16" s="197" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17" s="198" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="199">
+        <v>20</v>
+      </c>
+      <c r="D17" s="195" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="186" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="187">
+        <v>20</v>
+      </c>
+      <c r="H17" s="188" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="94"/>
+      <c r="J17" s="153" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="151">
+        <v>20</v>
+      </c>
+      <c r="L17" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="198" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="199">
+        <v>20</v>
+      </c>
+      <c r="P17" s="195" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="183" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="184">
+        <v>20</v>
+      </c>
+      <c r="D18" s="185" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="201">
+        <v>20</v>
+      </c>
+      <c r="H18" s="197" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="94"/>
+      <c r="J18" s="202" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="203">
+        <v>10</v>
+      </c>
+      <c r="L18" s="204" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="166">
+        <v>10</v>
+      </c>
+      <c r="P18" s="165" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J19" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="201">
+        <v>10</v>
+      </c>
+      <c r="L19" s="197" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="183" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" s="184">
+        <v>10</v>
+      </c>
+      <c r="P19" s="185" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D20" s="68"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D21" s="68"/>
+    </row>
+    <row r="22" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="J22" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+    </row>
+    <row r="23" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="159"/>
+      <c r="C23" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="179" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="180" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="159"/>
+      <c r="K23" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23" s="179" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="180" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="175" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="173">
+        <v>60</v>
+      </c>
+      <c r="D24" s="181">
+        <v>20</v>
+      </c>
+      <c r="E24" s="194">
+        <v>20</v>
+      </c>
+      <c r="F24" s="195">
+        <v>20</v>
+      </c>
+      <c r="G24" s="169" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="158"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="175" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="173">
+        <v>60</v>
+      </c>
+      <c r="L24" s="181">
+        <v>20</v>
+      </c>
+      <c r="M24" s="194">
+        <v>20</v>
+      </c>
+      <c r="N24" s="195">
+        <v>20</v>
+      </c>
+      <c r="O24" s="169" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" s="158"/>
+    </row>
+    <row r="25" spans="2:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="174">
+        <v>60</v>
+      </c>
+      <c r="D25" s="172">
+        <v>20</v>
+      </c>
+      <c r="E25" s="196">
+        <v>40</v>
+      </c>
+      <c r="F25" s="197">
+        <v>0</v>
+      </c>
+      <c r="G25" s="169" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="158"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="174">
+        <v>60</v>
+      </c>
+      <c r="L25" s="172">
+        <v>30</v>
+      </c>
+      <c r="M25" s="196">
+        <v>30</v>
+      </c>
+      <c r="N25" s="197">
+        <v>0</v>
+      </c>
+      <c r="O25" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="158"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B26" s="159"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="159"/>
+    </row>
+    <row r="27" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="170" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+    </row>
+    <row r="28" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="159"/>
+      <c r="C28" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="179" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="180" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="179" t="s">
+        <v>94</v>
+      </c>
+      <c r="N28" s="180" t="s">
+        <v>93</v>
+      </c>
+      <c r="O28" s="182"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B29" s="175" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="173">
+        <v>60</v>
+      </c>
+      <c r="D29" s="171">
+        <v>20</v>
+      </c>
+      <c r="E29" s="194">
+        <v>40</v>
+      </c>
+      <c r="F29" s="195">
+        <v>0</v>
+      </c>
+      <c r="G29" s="169" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="158"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="175" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="173">
+        <v>60</v>
+      </c>
+      <c r="L29" s="171">
+        <v>30</v>
+      </c>
+      <c r="M29" s="194">
+        <v>30</v>
+      </c>
+      <c r="N29" s="195">
+        <v>0</v>
+      </c>
+      <c r="O29" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="P29" s="158"/>
+    </row>
+    <row r="30" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="174">
+        <v>60</v>
+      </c>
+      <c r="D30" s="172">
+        <v>20</v>
+      </c>
+      <c r="E30" s="196">
+        <v>20</v>
+      </c>
+      <c r="F30" s="197">
+        <v>20</v>
+      </c>
+      <c r="G30" s="169" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="158"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="174">
+        <v>60</v>
+      </c>
+      <c r="L30" s="172">
+        <v>20</v>
+      </c>
+      <c r="M30" s="196">
+        <v>20</v>
+      </c>
+      <c r="N30" s="197">
+        <v>20</v>
+      </c>
+      <c r="O30" s="169" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" s="158"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O3:P6"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H2:J5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>